--- a/src/countries/france/data/sources/logement_caf.xlsx
+++ b/src/countries/france/data/sources/logement_caf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22710" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="benef" sheetId="4" r:id="rId1"/>
@@ -15,11 +15,12 @@
     <sheet name="sources" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <oleSize ref="A1:K23"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
   <si>
     <t>Tableau 1 - Bénéficiaires au 31 décembre  France métropolitaine (familles CNAF)</t>
   </si>
@@ -368,6 +369,12 @@
   </si>
   <si>
     <t>En euros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dont Aide Personnalisée au Logement - FNH (APL) hors foyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dont Aide Personnalisée au Logement - FNH (APL hors foyer)</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1759,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,7 +1850,7 @@
         <v>3851244000</v>
       </c>
       <c r="E3" s="9">
-        <v>3979264000</v>
+        <v>3946950000</v>
       </c>
       <c r="F3" s="9">
         <v>4004490000</v>
@@ -1873,22 +1880,22 @@
         <v>5952905000</v>
       </c>
       <c r="E4" s="9">
-        <v>6014837000</v>
+        <v>5474290000</v>
       </c>
       <c r="F4" s="9">
-        <v>5935145000</v>
+        <v>5429480000</v>
       </c>
       <c r="G4" s="9">
-        <v>6304846000</v>
+        <v>5764600000</v>
       </c>
       <c r="H4" s="9">
-        <v>6449607000</v>
+        <v>5884990000</v>
       </c>
       <c r="I4" s="9">
-        <v>6594481000</v>
+        <v>5999040000</v>
       </c>
       <c r="J4" s="9">
-        <v>6881382000</v>
+        <v>6265320000</v>
       </c>
     </row>
   </sheetData>
@@ -2109,10 +2116,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:J17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2200,27 +2207,27 @@
       </c>
       <c r="E4" s="9">
         <f t="shared" si="0"/>
-        <v>13129.423999999999</v>
+        <v>12556.562999999998</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" si="0"/>
-        <v>13120.913</v>
+        <v>12615.248</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" si="0"/>
-        <v>14135.778999999999</v>
+        <v>13595.532999999999</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" si="0"/>
-        <v>14477.7</v>
+        <v>13913.082999999999</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" si="0"/>
-        <v>14704.167000000001</v>
+        <v>14108.726000000001</v>
       </c>
       <c r="J4" s="9">
         <f t="shared" si="0"/>
-        <v>15131.696999999998</v>
+        <v>14515.634999999998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2264,7 +2271,7 @@
         <v>3851.2440000000001</v>
       </c>
       <c r="E6" s="9">
-        <v>3979.2640000000001</v>
+        <v>3946.95</v>
       </c>
       <c r="F6" s="9">
         <v>4004.49</v>
@@ -2284,7 +2291,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9">
@@ -2294,24 +2301,25 @@
         <v>5952.9049999999997</v>
       </c>
       <c r="E7" s="9">
-        <v>6014.8370000000004</v>
+        <v>5474.29</v>
       </c>
       <c r="F7" s="9">
-        <v>5935.1450000000004</v>
+        <v>5429.48</v>
       </c>
       <c r="G7" s="9">
-        <v>6304.8459999999995</v>
+        <v>5764.6</v>
       </c>
       <c r="H7" s="9">
-        <v>6449.607</v>
+        <v>5884.99</v>
       </c>
       <c r="I7" s="9">
-        <v>6594.4809999999998</v>
+        <v>5999.04</v>
       </c>
       <c r="J7" s="9">
-        <v>6881.3819999999996</v>
-      </c>
-    </row>
+        <v>6265.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>88</v>
@@ -2378,27 +2386,27 @@
       </c>
       <c r="E14" s="9">
         <f t="shared" si="1"/>
-        <v>13129424000</v>
+        <v>12556563000</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" si="1"/>
-        <v>13120913000</v>
+        <v>12615248000</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="1"/>
-        <v>14135779000</v>
+        <v>13595533000</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" si="1"/>
-        <v>14477700000</v>
+        <v>13913083000</v>
       </c>
       <c r="I14" s="9">
         <f t="shared" si="1"/>
-        <v>14704167000</v>
+        <v>14108726000</v>
       </c>
       <c r="J14" s="9">
         <f t="shared" si="1"/>
-        <v>15131697000</v>
+        <v>14515635000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -2452,8 +2460,8 @@
         <v>3851244000</v>
       </c>
       <c r="E16" s="9">
-        <f t="shared" si="3"/>
-        <v>3979264000</v>
+        <f>1000000 * E6</f>
+        <v>3946950000</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="3"/>
@@ -2478,7 +2486,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9">
@@ -2491,29 +2499,30 @@
       </c>
       <c r="E17" s="9">
         <f t="shared" si="4"/>
-        <v>6014837000</v>
+        <v>5474290000</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" si="4"/>
-        <v>5935145000</v>
+        <v>5429480000</v>
       </c>
       <c r="G17" s="9">
         <f t="shared" si="4"/>
-        <v>6304846000</v>
+        <v>5764600000</v>
       </c>
       <c r="H17" s="9">
         <f t="shared" si="4"/>
-        <v>6449607000</v>
+        <v>5884990000</v>
       </c>
       <c r="I17" s="9">
         <f t="shared" si="4"/>
-        <v>6594481000</v>
+        <v>5999040000</v>
       </c>
       <c r="J17" s="9">
         <f t="shared" si="4"/>
-        <v>6881382000</v>
-      </c>
-    </row>
+        <v>6265320000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -2555,9 +2564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O366"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
